--- a/Data Sets/Analysis Data/Stops Sorted Future Network.xlsx
+++ b/Data Sets/Analysis Data/Stops Sorted Future Network.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofc-my.sharepoint.com/personal/fahmid_kaisar_ucalgary_ca/Documents/Calgary Transit Repository/Data Sets/Route Coordinates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sulemanbasit/PycharmProjects/Calgary-Transit-Economic-Gap-Analysis/Data Sets/Analysis Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E165A93B-3007-4305-A9EA-CCF30FE8DB48}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B22059-BA37-EE4E-BBB6-5B98A6284C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21800" windowHeight="12980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="600">
   <si>
     <t>Location</t>
   </si>
@@ -1141,13 +1142,867 @@
   </si>
   <si>
     <t>160 Av NE</t>
+  </si>
+  <si>
+    <t>51.037521,-114.209662</t>
+  </si>
+  <si>
+    <t>51.132607,-113.946630</t>
+  </si>
+  <si>
+    <t>51.154394,-113.946825</t>
+  </si>
+  <si>
+    <t>51.165366,-113.970052</t>
+  </si>
+  <si>
+    <t>51.171153,-113.997944</t>
+  </si>
+  <si>
+    <t>50.882577,-114.069861</t>
+  </si>
+  <si>
+    <t>50.863245,-114.071419</t>
+  </si>
+  <si>
+    <t>50.950456,-113.978292</t>
+  </si>
+  <si>
+    <t>50.950518,-113.958030</t>
+  </si>
+  <si>
+    <t>50.950440,-113.935266</t>
+  </si>
+  <si>
+    <t>50.872209,-113.950232</t>
+  </si>
+  <si>
+    <t>50.880105,-113.946464</t>
+  </si>
+  <si>
+    <t>50.892277,-113.942436</t>
+  </si>
+  <si>
+    <t>50.914985,-113.957180</t>
+  </si>
+  <si>
+    <t>50.926256,-113.958577</t>
+  </si>
+  <si>
+    <t>50.935197,-113.966058</t>
+  </si>
+  <si>
+    <t>50.957835,-113.958599</t>
+  </si>
+  <si>
+    <t>50.968761,-113.958467</t>
+  </si>
+  <si>
+    <t>50.97548,-113.958646</t>
+  </si>
+  <si>
+    <t>50.989552,-113.958453</t>
+  </si>
+  <si>
+    <t>50.999043,-113.958473</t>
+  </si>
+  <si>
+    <t>51.008845,-113.958490</t>
+  </si>
+  <si>
+    <t>51.019090,-113.958487</t>
+  </si>
+  <si>
+    <t>51.028309,-113.958296</t>
+  </si>
+  <si>
+    <t>51.037841,-113.958342</t>
+  </si>
+  <si>
+    <t>51.045125,-113.958229</t>
+  </si>
+  <si>
+    <t>51.053441,-113.955783</t>
+  </si>
+  <si>
+    <t>51.062231,-113.958424</t>
+  </si>
+  <si>
+    <t>51.071692,-113.958459</t>
+  </si>
+  <si>
+    <t>51.076317,-113.95833</t>
+  </si>
+  <si>
+    <t>51.139640,-113.982032</t>
+  </si>
+  <si>
+    <t>51.132911,-114.011208</t>
+  </si>
+  <si>
+    <t>51.140909,-114.029706</t>
+  </si>
+  <si>
+    <t>51.140951,-114.054506</t>
+  </si>
+  <si>
+    <t>51.142381,-114/068940</t>
+  </si>
+  <si>
+    <t>51.047002,-114.081155</t>
+  </si>
+  <si>
+    <t>51.049186,-114.094728</t>
+  </si>
+  <si>
+    <t>51.049182,-114.105686</t>
+  </si>
+  <si>
+    <t>51.050126,-114.116920</t>
+  </si>
+  <si>
+    <t>51.055359,-114.129537</t>
+  </si>
+  <si>
+    <t>51.061062,-114.143277</t>
+  </si>
+  <si>
+    <t>51.072607,-114.160514</t>
+  </si>
+  <si>
+    <t>51.075291,-114.164410</t>
+  </si>
+  <si>
+    <t>51.082472,-114.173373</t>
+  </si>
+  <si>
+    <t>51.085691,-114.180038</t>
+  </si>
+  <si>
+    <t>51.089019,-114.190314</t>
+  </si>
+  <si>
+    <t>51.088982,-114.199435</t>
+  </si>
+  <si>
+    <t>51.085818,-114.211934</t>
+  </si>
+  <si>
+    <t>51.083666,-114.216097</t>
+  </si>
+  <si>
+    <t>51.086565,-114.131979</t>
+  </si>
+  <si>
+    <t>51.102440,-114.142192</t>
+  </si>
+  <si>
+    <t>51.126927,-114.133612</t>
+  </si>
+  <si>
+    <t>51.163212,-114.143926</t>
+  </si>
+  <si>
+    <t>51.168140,-114.141354</t>
+  </si>
+  <si>
+    <t>51.143216,-114.234242</t>
+  </si>
+  <si>
+    <t>51.154165,-114.234209</t>
+  </si>
+  <si>
+    <t>51.149881,-114.213369</t>
+  </si>
+  <si>
+    <t>51.154257,-114.187853</t>
+  </si>
+  <si>
+    <t>51.154333,-114.164105</t>
+  </si>
+  <si>
+    <t>51.142587,-114.123260</t>
+  </si>
+  <si>
+    <t>51.168150,-114.151832</t>
+  </si>
+  <si>
+    <t>51.168003,-114.141312</t>
+  </si>
+  <si>
+    <t>51.175967,-114.141352</t>
+  </si>
+  <si>
+    <t>51.183025,-114.141186</t>
+  </si>
+  <si>
+    <t>51.183156,-114.117896</t>
+  </si>
+  <si>
+    <t>51.183121,-114.105344</t>
+  </si>
+  <si>
+    <t>51.183307,-114.094448</t>
+  </si>
+  <si>
+    <t>51.183425,-114.080010</t>
+  </si>
+  <si>
+    <t>51.183455,-114.069231</t>
+  </si>
+  <si>
+    <t>51.183541,-114.052649</t>
+  </si>
+  <si>
+    <t>51.183419,-114.047901</t>
+  </si>
+  <si>
+    <t>51.183467,-114.036345</t>
+  </si>
+  <si>
+    <t>51.190753,-114.015624</t>
+  </si>
+  <si>
+    <t>51.199085,-113.996536</t>
+  </si>
+  <si>
+    <t>160th Av N</t>
+  </si>
+  <si>
+    <t>51.202967,-114.071234</t>
+  </si>
+  <si>
+    <t>144th av N</t>
+  </si>
+  <si>
+    <t>51.183470,-114.069242</t>
+  </si>
+  <si>
+    <t>North Pointe</t>
+  </si>
+  <si>
+    <t>51.157546,-114.070055</t>
+  </si>
+  <si>
+    <t>Panorama Hills
+Coventry Hills
+Country Hills Village</t>
+  </si>
+  <si>
+    <t>96th Av N</t>
+  </si>
+  <si>
+    <t>51.142372,-114.069109</t>
+  </si>
+  <si>
+    <t>Beddington</t>
+  </si>
+  <si>
+    <t>51.125521,-114.071698</t>
+  </si>
+  <si>
+    <t>Beddington Heights
+Huntington Hills</t>
+  </si>
+  <si>
+    <t>64 av N</t>
+  </si>
+  <si>
+    <t>51.110685,-114.062210</t>
+  </si>
+  <si>
+    <t>Huntington Hills
+Thorncliff</t>
+  </si>
+  <si>
+    <t>Thorncliffe</t>
+  </si>
+  <si>
+    <t>51.095997,-114.062391</t>
+  </si>
+  <si>
+    <t>Thorncliff
+Highland Park</t>
+  </si>
+  <si>
+    <t>40th av N</t>
+  </si>
+  <si>
+    <t>51.087328,-114.071690</t>
+  </si>
+  <si>
+    <t>Highland Park
+Highwood
+Queens Park Village</t>
+  </si>
+  <si>
+    <t>28th Av N</t>
+  </si>
+  <si>
+    <t>51.077906,-114.062476</t>
+  </si>
+  <si>
+    <t>Mount Pleasant
+Tuxedo Park</t>
+  </si>
+  <si>
+    <t>16th Av N</t>
+  </si>
+  <si>
+    <t>51.066759,-114.062480</t>
+  </si>
+  <si>
+    <t>Tuxedo Park
+Crescent Heights</t>
+  </si>
+  <si>
+    <t>9th Av N</t>
+  </si>
+  <si>
+    <t>51.060517,-114.062722</t>
+  </si>
+  <si>
+    <t>Crescent Heights</t>
+  </si>
+  <si>
+    <t>Eau Claire</t>
+  </si>
+  <si>
+    <t>51.052440,-114.070063</t>
+  </si>
+  <si>
+    <t>Eau Claire
+Chinatown</t>
+  </si>
+  <si>
+    <t>Centre St S</t>
+  </si>
+  <si>
+    <t>51.042321,-114.063271</t>
+  </si>
+  <si>
+    <t>4 st SE</t>
+  </si>
+  <si>
+    <t>51.041907,-114.053544</t>
+  </si>
+  <si>
+    <t>Inglewood/Ramsay</t>
+  </si>
+  <si>
+    <t>51.036298,-114.036901</t>
+  </si>
+  <si>
+    <t>Ramsay
+Inglewood</t>
+  </si>
+  <si>
+    <t>26th Av SE</t>
+  </si>
+  <si>
+    <t>51.030653,-114.036665</t>
+  </si>
+  <si>
+    <t>Highfield</t>
+  </si>
+  <si>
+    <t>51.019108,-114.030528</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Lynnwood</t>
+  </si>
+  <si>
+    <t>50.993343,-114.003102</t>
+  </si>
+  <si>
+    <t>Ogden</t>
+  </si>
+  <si>
+    <t>50.979119,-113.992720</t>
+  </si>
+  <si>
+    <t>South Hill</t>
+  </si>
+  <si>
+    <t>50.968686,-114.001624</t>
+  </si>
+  <si>
+    <t>Quarry Park</t>
+  </si>
+  <si>
+    <t>50.963428,-114.001754</t>
+  </si>
+  <si>
+    <t>50.949428,-114.004161</t>
+  </si>
+  <si>
+    <t>Douglasdale/Glen</t>
+  </si>
+  <si>
+    <t>Shepard</t>
+  </si>
+  <si>
+    <t>50.947807,-113.988847</t>
+  </si>
+  <si>
+    <t>50.931204,-113.958172</t>
+  </si>
+  <si>
+    <t>Mckenzie Towne
+New Brighton</t>
+  </si>
+  <si>
+    <t>Mckenzie Towne</t>
+  </si>
+  <si>
+    <t>50.912728,-113.951891</t>
+  </si>
+  <si>
+    <t>Mckenzie Towne
+New Brighton
+Copperfield</t>
+  </si>
+  <si>
+    <t>Auburn Bay/ Mahogany</t>
+  </si>
+  <si>
+    <t>50.899769,-113.944574</t>
+  </si>
+  <si>
+    <t>Mahogany
+Auburn Bay</t>
+  </si>
+  <si>
+    <t>50.8885290,-113.941980</t>
+  </si>
+  <si>
+    <t>Mahogany
+Auburn Bay
+Seton</t>
+  </si>
+  <si>
+    <t>50.878119,-113.937621</t>
+  </si>
+  <si>
+    <t>Stops</t>
+  </si>
+  <si>
+    <t>Coordinates</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>East Grey</t>
+  </si>
+  <si>
+    <t>West Grey</t>
+  </si>
+  <si>
+    <t>Future Tuscany Connection</t>
+  </si>
+  <si>
+    <t>Green Line</t>
+  </si>
+  <si>
+    <t>51.037317,-114.187902</t>
+  </si>
+  <si>
+    <t>51.038353, -114.169128</t>
+  </si>
+  <si>
+    <t>51.03776,-114.153425</t>
+  </si>
+  <si>
+    <t>51.041596,-114.124162</t>
+  </si>
+  <si>
+    <t>51.041724,-114.124038</t>
+  </si>
+  <si>
+    <t>51.044842,-114.099099</t>
+  </si>
+  <si>
+    <t>51.047199,-114.087225</t>
+  </si>
+  <si>
+    <t>51.046974,-114.079003</t>
+  </si>
+  <si>
+    <t>51.046831,-114.073872</t>
+  </si>
+  <si>
+    <t>51.046548,-114.067882</t>
+  </si>
+  <si>
+    <t>51.046352,-114.058588</t>
+  </si>
+  <si>
+    <t>51.049006,-114.040292</t>
+  </si>
+  <si>
+    <t>51.047355,-114.025265</t>
+  </si>
+  <si>
+    <t>51.045383,-114.005753</t>
+  </si>
+  <si>
+    <t>51.047046,-113.994380</t>
+  </si>
+  <si>
+    <t>51.058821,-113.981329</t>
+  </si>
+  <si>
+    <t>51.074977,-113.981646</t>
+  </si>
+  <si>
+    <t>51.086158,-113.981999</t>
+  </si>
+  <si>
+    <t>51.109637,-113.974725</t>
+  </si>
+  <si>
+    <t>51.117942,-113.967602</t>
+  </si>
+  <si>
+    <t>51.126022,-113.947956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martindale
+Taradale
+Saddle Ridge
+</t>
+  </si>
+  <si>
+    <t>51.134478,-114.235600</t>
+  </si>
+  <si>
+    <t>51.122479,-114.206602</t>
+  </si>
+  <si>
+    <t>51.102940,-114.159969</t>
+  </si>
+  <si>
+    <t>51.086784,-114.131849</t>
+  </si>
+  <si>
+    <t>51.080099,-114.123020</t>
+  </si>
+  <si>
+    <t>51.070964,-114.115431</t>
+  </si>
+  <si>
+    <t>51.065000,-114.103587</t>
+  </si>
+  <si>
+    <t>51.063036,-114.091128</t>
+  </si>
+  <si>
+    <t>51.055896,-114.084383</t>
+  </si>
+  <si>
+    <t>51.037998,-114.058285</t>
+  </si>
+  <si>
+    <t>51.031945,-114.059005</t>
+  </si>
+  <si>
+    <t>51.017296,-114.061357</t>
+  </si>
+  <si>
+    <t>50.997258,-114.065494</t>
+  </si>
+  <si>
+    <t>50.978422,-114.073923</t>
+  </si>
+  <si>
+    <t>50.964062,-114.076725</t>
+  </si>
+  <si>
+    <t>50.953976,-114.074688</t>
+  </si>
+  <si>
+    <t>50.936173,-114.069820</t>
+  </si>
+  <si>
+    <t>50.923233,-114.072885</t>
+  </si>
+  <si>
+    <t>50.910504,-114.070564</t>
+  </si>
+  <si>
+    <t>50.898637,-114.068921</t>
+  </si>
+  <si>
+    <t>51.086514,-114.132140</t>
+  </si>
+  <si>
+    <t>51.081855,-114.130239</t>
+  </si>
+  <si>
+    <t>51.075276,-114.145858</t>
+  </si>
+  <si>
+    <t>51.065159,-114.132418</t>
+  </si>
+  <si>
+    <t>51.066812,-114.105172</t>
+  </si>
+  <si>
+    <t>51.066894,-114.089896</t>
+  </si>
+  <si>
+    <t>51.066725,-114.071192</t>
+  </si>
+  <si>
+    <t>51.066885,-114.056019</t>
+  </si>
+  <si>
+    <t>51.066966,-114.043084</t>
+  </si>
+  <si>
+    <t>51.066960,-114.013324</t>
+  </si>
+  <si>
+    <t>51.081512,-113.969956</t>
+  </si>
+  <si>
+    <t>51.082115,-113.958453</t>
+  </si>
+  <si>
+    <t>51.085938,-113.958505</t>
+  </si>
+  <si>
+    <t>51.091555,-113.958432</t>
+  </si>
+  <si>
+    <t>51.099873,-113.958345</t>
+  </si>
+  <si>
+    <t>51.106660,-113.949767</t>
+  </si>
+  <si>
+    <t>51.114127,-113.946840</t>
+  </si>
+  <si>
+    <t>51.121049,-113.946725</t>
+  </si>
+  <si>
+    <t>51.030274,-114.14226</t>
+  </si>
+  <si>
+    <t>richmond rd</t>
+  </si>
+  <si>
+    <t>51.022530,-114.141154</t>
+  </si>
+  <si>
+    <t>sarcee rd</t>
+  </si>
+  <si>
+    <t>51.012510,-114.139111</t>
+  </si>
+  <si>
+    <t>mount royal university west</t>
+  </si>
+  <si>
+    <t>51.014362,-114.13384</t>
+  </si>
+  <si>
+    <t>51.011005,-114.126971</t>
+  </si>
+  <si>
+    <t>51.005345,-114.117967</t>
+  </si>
+  <si>
+    <t>50.987582,-114.095881</t>
+  </si>
+  <si>
+    <t>heritage park</t>
+  </si>
+  <si>
+    <t>50.979969,-114.095656</t>
+  </si>
+  <si>
+    <t>elbow dr</t>
+  </si>
+  <si>
+    <t>50.979615,-114.083052</t>
+  </si>
+  <si>
+    <t>50.979077,-114.074892</t>
+  </si>
+  <si>
+    <t>fairmount dr</t>
+  </si>
+  <si>
+    <t>50.979583,-114.060045</t>
+  </si>
+  <si>
+    <t>deerfoot meadows</t>
+  </si>
+  <si>
+    <t>50.987162,-114.044048</t>
+  </si>
+  <si>
+    <t>riverbend</t>
+  </si>
+  <si>
+    <t>50.975789,-114.015810</t>
+  </si>
+  <si>
+    <t>quarry park</t>
+  </si>
+  <si>
+    <t>50.963583,-114.012232</t>
+  </si>
+  <si>
+    <t>douglas glen blvd</t>
+  </si>
+  <si>
+    <t>50.957148,-114.007522</t>
+  </si>
+  <si>
+    <t>dougles glen</t>
+  </si>
+  <si>
+    <t>50.956513,-114.001312</t>
+  </si>
+  <si>
+    <t>51.047434,-114.061768</t>
+  </si>
+  <si>
+    <t>51.0466330,-114.065383</t>
+  </si>
+  <si>
+    <t>51.045379,-114.055585</t>
+  </si>
+  <si>
+    <t>51.044690,-114.063075</t>
+  </si>
+  <si>
+    <t>51.044502,-114.058282</t>
+  </si>
+  <si>
+    <t>51.044066,-114.048331</t>
+  </si>
+  <si>
+    <t>51.043363,-114.041537</t>
+  </si>
+  <si>
+    <t>51.041229,-114.034308</t>
+  </si>
+  <si>
+    <t>51.036429,-114.021919</t>
+  </si>
+  <si>
+    <t>51.037488,-113.994222</t>
+  </si>
+  <si>
+    <t>51.037814,-113.986637</t>
+  </si>
+  <si>
+    <t>51.037739,-113.981612</t>
+  </si>
+  <si>
+    <t>51.037819,-113.969973</t>
+  </si>
+  <si>
+    <t>51.037821,-113.958457</t>
+  </si>
+  <si>
+    <t>51.037972,-113.942816</t>
+  </si>
+  <si>
+    <t>51.037831,-113.930156</t>
+  </si>
+  <si>
+    <t>51.037533,-113.911970</t>
+  </si>
+  <si>
+    <t>51.037533,-113.907559</t>
+  </si>
+  <si>
+    <t>51.047901,-114.079439</t>
+  </si>
+  <si>
+    <t>51.047793,-114.074234</t>
+  </si>
+  <si>
+    <t>51.047572,-114.068641</t>
+  </si>
+  <si>
+    <t>51.048414,-114.065394</t>
+  </si>
+  <si>
+    <t>51.048638,-114.072426</t>
+  </si>
+  <si>
+    <t>51.046733,-114.076297</t>
+  </si>
+  <si>
+    <t>51.045158,-114.083900</t>
+  </si>
+  <si>
+    <t>51.037603,-114.113548</t>
+  </si>
+  <si>
+    <t>51.030320,-114.118145</t>
+  </si>
+  <si>
+    <t>51.024180,-114.117894</t>
+  </si>
+  <si>
+    <t>50.973842,-114.095834</t>
+  </si>
+  <si>
+    <t>50.961658,-114.106715</t>
+  </si>
+  <si>
+    <t>50.960631,-114.117981</t>
+  </si>
+  <si>
+    <t>50.954587,-114.117965</t>
+  </si>
+  <si>
+    <t>50.941329,-114.117942</t>
+  </si>
+  <si>
+    <t>50.936424,-114.117873</t>
+  </si>
+  <si>
+    <t>Shaganappi
+Rosscarrock
+Killarney</t>
+  </si>
+  <si>
+    <t>Hounsfield Heights/Briar Hill</t>
+  </si>
+  <si>
+    <t>Hounsfield Heights/Briar Hill
+Capitol Hill
+Banff Trail</t>
+  </si>
+  <si>
+    <t>Killarney/Glengarry
+Glenbrook
+Glendale</t>
+  </si>
+  <si>
+    <t>Rutland Park
+Glamorgan
+Glenbrook
+Killarney/Glengarry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1198,7 +2053,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1265,6 +2120,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1278,7 +2139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1338,6 +2199,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1674,23 +2557,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22:C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1707,7 +2590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="42.75">
+    <row r="2" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1724,7 +2607,7 @@
         <v>-114.23560000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.5">
+    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1741,7 +2624,7 @@
         <v>-114.206602</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.5">
+    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1758,7 +2641,7 @@
         <v>-114.159969</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="42.75">
+    <row r="5" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1775,7 +2658,7 @@
         <v>-114.131849</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="42.75">
+    <row r="6" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1792,7 +2675,7 @@
         <v>-114.12302</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.5">
+    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1809,7 +2692,7 @@
         <v>-114.115431</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1826,7 +2709,7 @@
         <v>-114.103587</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1843,7 +2726,7 @@
         <v>-114.091128</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1860,7 +2743,7 @@
         <v>-114.084383</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1877,7 +2760,7 @@
         <v>-114.058285</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1894,7 +2777,7 @@
         <v>-114.059005</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="42.75">
+    <row r="13" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1911,7 +2794,7 @@
         <v>-114.061357</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.5">
+    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -1928,7 +2811,7 @@
         <v>-114.065494</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.5">
+    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
@@ -1945,7 +2828,7 @@
         <v>-114.07392299999999</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="57">
+    <row r="16" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -1962,7 +2845,7 @@
         <v>-114.076725</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="28.5">
+    <row r="17" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
@@ -1979,7 +2862,7 @@
         <v>-114.07468799999999</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="42.75">
+    <row r="18" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
@@ -1996,7 +2879,7 @@
         <v>-114.06982000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="28.5">
+    <row r="19" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
@@ -2013,7 +2896,7 @@
         <v>-114.072885</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="42.75">
+    <row r="20" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -2030,7 +2913,7 @@
         <v>-114.070564</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -2047,7 +2930,7 @@
         <v>-114.068921</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>45</v>
       </c>
@@ -2065,7 +2948,7 @@
       </c>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>45</v>
       </c>
@@ -2083,7 +2966,7 @@
       </c>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>45</v>
       </c>
@@ -2101,7 +2984,7 @@
       </c>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>45</v>
       </c>
@@ -2119,7 +3002,7 @@
       </c>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9" ht="57">
+    <row r="26" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>50</v>
       </c>
@@ -2136,7 +3019,7 @@
         <v>-114.18790199999999</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="28.5">
+    <row r="27" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>53</v>
       </c>
@@ -2153,7 +3036,7 @@
         <v>-114.169128</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="42.75">
+    <row r="28" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>55</v>
       </c>
@@ -2170,7 +3053,7 @@
         <v>-114.153425</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="42.75">
+    <row r="29" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>57</v>
       </c>
@@ -2187,7 +3070,7 @@
         <v>-114.124162</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>59</v>
       </c>
@@ -2204,7 +3087,7 @@
         <v>-114.124038</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>61</v>
       </c>
@@ -2221,7 +3104,7 @@
         <v>-114.099099</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>62</v>
       </c>
@@ -2238,7 +3121,7 @@
         <v>-114.087225</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>45</v>
       </c>
@@ -2256,7 +3139,7 @@
       </c>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>45</v>
       </c>
@@ -2274,7 +3157,7 @@
       </c>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>45</v>
       </c>
@@ -2292,7 +3175,7 @@
       </c>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>45</v>
       </c>
@@ -2310,7 +3193,7 @@
       </c>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>64</v>
       </c>
@@ -2327,7 +3210,7 @@
         <v>-114.04029199999999</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>64</v>
       </c>
@@ -2344,7 +3227,7 @@
         <v>-114.025265</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>67</v>
       </c>
@@ -2361,7 +3244,7 @@
         <v>-114.005753</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>69</v>
       </c>
@@ -2378,7 +3261,7 @@
         <v>-113.99438000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="28.5">
+    <row r="41" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>71</v>
       </c>
@@ -2395,7 +3278,7 @@
         <v>-113.981329</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>73</v>
       </c>
@@ -2412,7 +3295,7 @@
         <v>-113.981646</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="28.5">
+    <row r="43" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>74</v>
       </c>
@@ -2429,7 +3312,7 @@
         <v>-113.981999</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="28.5">
+    <row r="44" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>76</v>
       </c>
@@ -2446,7 +3329,7 @@
         <v>-113.97472500000001</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="28.5">
+    <row r="45" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>78</v>
       </c>
@@ -2463,7 +3346,7 @@
         <v>-113.967602</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="42.75">
+    <row r="46" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>80</v>
       </c>
@@ -2481,7 +3364,7 @@
       </c>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" ht="28.5">
+    <row r="47" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>82</v>
       </c>
@@ -2498,7 +3381,7 @@
         <v>-114.13214000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="28.5">
+    <row r="48" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>84</v>
       </c>
@@ -2515,7 +3398,7 @@
         <v>-114.130239</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="28.5">
+    <row r="49" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>86</v>
       </c>
@@ -2532,7 +3415,7 @@
         <v>-114.145858</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>88</v>
       </c>
@@ -2549,7 +3432,7 @@
         <v>-114.132418</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="57">
+    <row r="51" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>90</v>
       </c>
@@ -2566,7 +3449,7 @@
         <v>-114.105172</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="28.5">
+    <row r="52" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>92</v>
       </c>
@@ -2583,7 +3466,7 @@
         <v>-114.089896</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="57">
+    <row r="53" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>94</v>
       </c>
@@ -2600,7 +3483,7 @@
         <v>-114.071192</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="71.25">
+    <row r="54" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>96</v>
       </c>
@@ -2617,7 +3500,7 @@
         <v>-114.05601900000001</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="42.75">
+    <row r="55" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>98</v>
       </c>
@@ -2634,7 +3517,7 @@
         <v>-114.04308399999999</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>67</v>
       </c>
@@ -2651,7 +3534,7 @@
         <v>-114.013324</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="28.5">
+    <row r="57" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>101</v>
       </c>
@@ -2668,7 +3551,7 @@
         <v>-113.969956</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="57">
+    <row r="58" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>103</v>
       </c>
@@ -2685,7 +3568,7 @@
         <v>-113.95845300000001</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="28.5">
+    <row r="59" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>105</v>
       </c>
@@ -2702,7 +3585,7 @@
         <v>-113.958505</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="28.5">
+    <row r="60" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>107</v>
       </c>
@@ -2719,7 +3602,7 @@
         <v>-113.958432</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="28.5">
+    <row r="61" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>109</v>
       </c>
@@ -2736,7 +3619,7 @@
         <v>-113.95834499999999</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="28.5">
+    <row r="62" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>109</v>
       </c>
@@ -2753,7 +3636,7 @@
         <v>-113.94976699999999</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="28.5">
+    <row r="63" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>112</v>
       </c>
@@ -2770,7 +3653,7 @@
         <v>-113.94683999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="42.75">
+    <row r="64" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>80</v>
       </c>
@@ -2787,7 +3670,7 @@
         <v>-113.946725</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="42.75">
+    <row r="65" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>115</v>
       </c>
@@ -2804,7 +3687,7 @@
         <v>-114.14225999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="57">
+    <row r="66" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>118</v>
       </c>
@@ -2821,7 +3704,7 @@
         <v>-114.141154</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="42.75">
+    <row r="67" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>120</v>
       </c>
@@ -2838,7 +3721,7 @@
         <v>-114.139111</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>122</v>
       </c>
@@ -2855,7 +3738,7 @@
         <v>-114.13384000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>124</v>
       </c>
@@ -2872,7 +3755,7 @@
         <v>-114.126971</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="28.5">
+    <row r="70" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>125</v>
       </c>
@@ -2889,7 +3772,7 @@
         <v>-114.11796699999999</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="28.5">
+    <row r="71" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>127</v>
       </c>
@@ -2906,7 +3789,7 @@
         <v>-114.09588100000001</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="28.5">
+    <row r="72" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>129</v>
       </c>
@@ -2923,7 +3806,7 @@
         <v>-114.09565600000001</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="42.75">
+    <row r="73" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>131</v>
       </c>
@@ -2940,7 +3823,7 @@
         <v>-114.083052</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="57">
+    <row r="74" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>133</v>
       </c>
@@ -2957,7 +3840,7 @@
         <v>-114.07489200000001</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="28.5">
+    <row r="75" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>135</v>
       </c>
@@ -2974,7 +3857,7 @@
         <v>-114.060045</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>137</v>
       </c>
@@ -2991,7 +3874,7 @@
         <v>-114.044048</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>139</v>
       </c>
@@ -3008,7 +3891,7 @@
         <v>-114.01581</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="28.5">
+    <row r="78" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>140</v>
       </c>
@@ -3025,7 +3908,7 @@
         <v>-114.012232</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="28.5">
+    <row r="79" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>142</v>
       </c>
@@ -3042,7 +3925,7 @@
         <v>-114.00752199999999</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>144</v>
       </c>
@@ -3059,7 +3942,7 @@
         <v>-114.001312</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>146</v>
       </c>
@@ -3076,7 +3959,7 @@
         <v>-114.061768</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>149</v>
       </c>
@@ -3093,7 +3976,7 @@
         <v>-114.065383</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="42.75">
+    <row r="83" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>150</v>
       </c>
@@ -3110,7 +3993,7 @@
         <v>-114.05558499999999</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="42.75">
+    <row r="84" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>152</v>
       </c>
@@ -3127,7 +4010,7 @@
         <v>-114.063075</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="57">
+    <row r="85" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>154</v>
       </c>
@@ -3144,7 +4027,7 @@
         <v>-114.05828200000001</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="28.5">
+    <row r="86" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>156</v>
       </c>
@@ -3161,7 +4044,7 @@
         <v>-114.048331</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="57">
+    <row r="87" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>158</v>
       </c>
@@ -3178,7 +4061,7 @@
         <v>-114.04153700000001</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="28.5">
+    <row r="88" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>160</v>
       </c>
@@ -3195,7 +4078,7 @@
         <v>-114.034308</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>162</v>
       </c>
@@ -3212,7 +4095,7 @@
         <v>-114.021919</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>164</v>
       </c>
@@ -3229,7 +4112,7 @@
         <v>-113.99422199999999</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>166</v>
       </c>
@@ -3246,7 +4129,7 @@
         <v>-113.986637</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="42.75">
+    <row r="92" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>167</v>
       </c>
@@ -3263,7 +4146,7 @@
         <v>-113.981612</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="28.5">
+    <row r="93" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>169</v>
       </c>
@@ -3280,7 +4163,7 @@
         <v>-113.969973</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="42.75">
+    <row r="94" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>171</v>
       </c>
@@ -3297,7 +4180,7 @@
         <v>-113.958457</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>173</v>
       </c>
@@ -3314,7 +4197,7 @@
         <v>-113.94281599999999</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>175</v>
       </c>
@@ -3331,7 +4214,7 @@
         <v>-113.930156</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>177</v>
       </c>
@@ -3348,7 +4231,7 @@
         <v>-113.91197</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>178</v>
       </c>
@@ -3365,7 +4248,7 @@
         <v>-113.90755900000001</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="33.75" customHeight="1">
+    <row r="99" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>179</v>
       </c>
@@ -3382,7 +4265,7 @@
         <v>-114.07943899999999</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>182</v>
       </c>
@@ -3399,7 +4282,7 @@
         <v>-114.074234</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>183</v>
       </c>
@@ -3416,7 +4299,7 @@
         <v>-114.068641</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="42.75">
+    <row r="102" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>184</v>
       </c>
@@ -3433,7 +4316,7 @@
         <v>-114.065394</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>186</v>
       </c>
@@ -3450,7 +4333,7 @@
         <v>-114.07242599999999</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>187</v>
       </c>
@@ -3467,7 +4350,7 @@
         <v>-114.076297</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="57">
+    <row r="105" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>188</v>
       </c>
@@ -3484,7 +4367,7 @@
         <v>-114.0839</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="28.5">
+    <row r="106" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>190</v>
       </c>
@@ -3501,7 +4384,7 @@
         <v>-114.11354799999999</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>192</v>
       </c>
@@ -3518,7 +4401,7 @@
         <v>-114.118145</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="42.75">
+    <row r="108" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>194</v>
       </c>
@@ -3535,7 +4418,7 @@
         <v>-114.11789400000001</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>196</v>
       </c>
@@ -3552,7 +4435,7 @@
         <v>-114.126971</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="28.5">
+    <row r="110" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>197</v>
       </c>
@@ -3569,7 +4452,7 @@
         <v>-114.11796699999999</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="28.5">
+    <row r="111" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>198</v>
       </c>
@@ -3586,7 +4469,7 @@
         <v>-114.09588100000001</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="28.5">
+    <row r="112" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>199</v>
       </c>
@@ -3603,7 +4486,7 @@
         <v>-114.09565600000001</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="57">
+    <row r="113" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>200</v>
       </c>
@@ -3620,7 +4503,7 @@
         <v>-114.095834</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="42.75">
+    <row r="114" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>202</v>
       </c>
@@ -3637,7 +4520,7 @@
         <v>-114.10671499999999</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="57">
+    <row r="115" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>204</v>
       </c>
@@ -3654,7 +4537,7 @@
         <v>-114.117981</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="28.5">
+    <row r="116" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>206</v>
       </c>
@@ -3671,7 +4554,7 @@
         <v>-114.117965</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="28.5">
+    <row r="117" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>208</v>
       </c>
@@ -3688,7 +4571,7 @@
         <v>-114.117942</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="28.5">
+    <row r="118" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>210</v>
       </c>
@@ -3705,7 +4588,7 @@
         <v>-114.117873</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="29.25">
+    <row r="119" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>211</v>
       </c>
@@ -3722,7 +4605,7 @@
         <v>-114.20966199999999</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15">
+    <row r="120" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="20" t="s">
         <v>213</v>
       </c>
@@ -3739,7 +4622,7 @@
         <v>-113.94663</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="29.25">
+    <row r="121" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>215</v>
       </c>
@@ -3756,7 +4639,7 @@
         <v>-113.946825</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="29.25">
+    <row r="122" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>217</v>
       </c>
@@ -3773,7 +4656,7 @@
         <v>-113.970052</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>219</v>
       </c>
@@ -3790,7 +4673,7 @@
         <v>-113.997944</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>221</v>
       </c>
@@ -3807,7 +4690,7 @@
         <v>-114.069861</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>222</v>
       </c>
@@ -3824,7 +4707,7 @@
         <v>-114.07141900000001</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="17" t="s">
         <v>224</v>
       </c>
@@ -3841,7 +4724,7 @@
         <v>-113.978292</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="21" t="s">
         <v>226</v>
       </c>
@@ -3858,7 +4741,7 @@
         <v>-113.95802999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="17" t="s">
         <v>227</v>
       </c>
@@ -3875,7 +4758,7 @@
         <v>-113.935266</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="18" t="s">
         <v>228</v>
       </c>
@@ -3889,7 +4772,7 @@
         <v>-113.90050100000001</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="18" t="s">
         <v>229</v>
       </c>
@@ -3903,7 +4786,7 @@
         <v>-113.889127</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="18" t="s">
         <v>230</v>
       </c>
@@ -3917,7 +4800,7 @@
         <v>-113.87811000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="18" t="s">
         <v>231</v>
       </c>
@@ -3926,7 +4809,7 @@
       </c>
       <c r="D132" s="18"/>
     </row>
-    <row r="133" spans="1:5" ht="15">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="22" t="s">
         <v>232</v>
       </c>
@@ -3943,7 +4826,7 @@
         <v>-113.950232</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="22" t="s">
         <v>234</v>
       </c>
@@ -3960,7 +4843,7 @@
         <v>-113.94646400000001</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="29.25">
+    <row r="135" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A135" s="22" t="s">
         <v>235</v>
       </c>
@@ -3977,7 +4860,7 @@
         <v>-113.942436</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="29.25">
+    <row r="136" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A136" s="22" t="s">
         <v>237</v>
       </c>
@@ -3994,7 +4877,7 @@
         <v>-113.95717999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="29.25">
+    <row r="137" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A137" s="22" t="s">
         <v>239</v>
       </c>
@@ -4011,7 +4894,7 @@
         <v>-113.95857700000001</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="22" t="s">
         <v>240</v>
       </c>
@@ -4028,7 +4911,7 @@
         <v>-113.966058</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="22" t="s">
         <v>241</v>
       </c>
@@ -4045,7 +4928,7 @@
         <v>-113.95859900000001</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="22" t="s">
         <v>242</v>
       </c>
@@ -4062,7 +4945,7 @@
         <v>-113.958467</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="22" t="s">
         <v>243</v>
       </c>
@@ -4079,7 +4962,7 @@
         <v>-113.958646</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="22" t="s">
         <v>244</v>
       </c>
@@ -4096,7 +4979,7 @@
         <v>-113.95845300000001</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="22" t="s">
         <v>245</v>
       </c>
@@ -4113,7 +4996,7 @@
         <v>-113.958473</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="22" t="s">
         <v>246</v>
       </c>
@@ -4130,7 +5013,7 @@
         <v>-113.95849</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="22" t="s">
         <v>247</v>
       </c>
@@ -4147,7 +5030,7 @@
         <v>-113.95848700000001</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="43.5">
+    <row r="146" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A146" s="22" t="s">
         <v>248</v>
       </c>
@@ -4164,7 +5047,7 @@
         <v>-113.958296</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="29.25">
+    <row r="147" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A147" s="22" t="s">
         <v>250</v>
       </c>
@@ -4181,7 +5064,7 @@
         <v>-113.958342</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="43.5">
+    <row r="148" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A148" s="22" t="s">
         <v>251</v>
       </c>
@@ -4198,7 +5081,7 @@
         <v>-113.958229</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="57.75">
+    <row r="149" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A149" s="22" t="s">
         <v>252</v>
       </c>
@@ -4215,7 +5098,7 @@
         <v>-113.955783</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="22" t="s">
         <v>254</v>
       </c>
@@ -4232,7 +5115,7 @@
         <v>-113.95842399999999</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="29.25">
+    <row r="151" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A151" s="22" t="s">
         <v>256</v>
       </c>
@@ -4249,7 +5132,7 @@
         <v>-113.958459</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="29.25">
+    <row r="152" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A152" s="22" t="s">
         <v>258</v>
       </c>
@@ -4266,7 +5149,7 @@
         <v>-113.95833</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="22" t="s">
         <v>259</v>
       </c>
@@ -4283,7 +5166,7 @@
         <v>-113.982032</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="22" t="s">
         <v>261</v>
       </c>
@@ -4300,7 +5183,7 @@
         <v>-114.011208</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="22" t="s">
         <v>263</v>
       </c>
@@ -4317,7 +5200,7 @@
         <v>-114.029706</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="22" t="s">
         <v>264</v>
       </c>
@@ -4334,7 +5217,7 @@
         <v>-114.054506</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="29.25">
+    <row r="157" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A157" s="22" t="s">
         <v>266</v>
       </c>
@@ -4352,7 +5235,7 @@
         <v>-1.6536118363794604E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="43.5">
+    <row r="158" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A158" s="23" t="s">
         <v>268</v>
       </c>
@@ -4369,7 +5252,7 @@
         <v>-114.081155</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="23" t="s">
         <v>271</v>
       </c>
@@ -4386,7 +5269,7 @@
         <v>-114.094728</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="29.25">
+    <row r="160" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A160" s="23" t="s">
         <v>272</v>
       </c>
@@ -4403,7 +5286,7 @@
         <v>-114.10568600000001</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="23" t="s">
         <v>274</v>
       </c>
@@ -4420,7 +5303,7 @@
         <v>-114.11691999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="29.25">
+    <row r="162" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A162" s="23" t="s">
         <v>276</v>
       </c>
@@ -4437,7 +5320,7 @@
         <v>-114.129537</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="29.25">
+    <row r="163" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A163" s="23" t="s">
         <v>278</v>
       </c>
@@ -4454,7 +5337,7 @@
         <v>-114.143277</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="15">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="23" t="s">
         <v>280</v>
       </c>
@@ -4471,7 +5354,7 @@
         <v>-114.16051400000001</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="15">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="23" t="s">
         <v>282</v>
       </c>
@@ -4488,7 +5371,7 @@
         <v>-114.16441</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="23" t="s">
         <v>283</v>
       </c>
@@ -4505,7 +5388,7 @@
         <v>-114.173373</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="15">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="23" t="s">
         <v>285</v>
       </c>
@@ -4522,7 +5405,7 @@
         <v>-114.180038</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="15">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="23" t="s">
         <v>286</v>
       </c>
@@ -4539,7 +5422,7 @@
         <v>-114.190314</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="15">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="23" t="s">
         <v>287</v>
       </c>
@@ -4556,7 +5439,7 @@
         <v>-114.19943499999999</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="29.25">
+    <row r="170" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A170" s="23" t="s">
         <v>288</v>
       </c>
@@ -4573,7 +5456,7 @@
         <v>-114.211934</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="15">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="23" t="s">
         <v>290</v>
       </c>
@@ -4590,7 +5473,7 @@
         <v>-114.216097</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="29.25">
+    <row r="172" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A172" s="24" t="s">
         <v>13</v>
       </c>
@@ -4607,7 +5490,7 @@
         <v>-114.131979</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="15">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="24" t="s">
         <v>293</v>
       </c>
@@ -4624,7 +5507,7 @@
         <v>-114.14219199999999</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="15">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="24" t="s">
         <v>294</v>
       </c>
@@ -4641,7 +5524,7 @@
         <v>-114.133612</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="15">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="24" t="s">
         <v>295</v>
       </c>
@@ -4658,7 +5541,7 @@
         <v>-114.14392599999999</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="29.25">
+    <row r="176" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A176" s="24" t="s">
         <v>297</v>
       </c>
@@ -4675,7 +5558,7 @@
         <v>-114.14135400000001</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="29.25">
+    <row r="177" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A177" s="25" t="s">
         <v>299</v>
       </c>
@@ -4692,7 +5575,7 @@
         <v>-114.23424199999999</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="29.25">
+    <row r="178" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A178" s="25" t="s">
         <v>302</v>
       </c>
@@ -4709,7 +5592,7 @@
         <v>-114.23420900000001</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="15">
+    <row r="179" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="25" t="s">
         <v>303</v>
       </c>
@@ -4726,7 +5609,7 @@
         <v>-114.213369</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="15">
+    <row r="180" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="25" t="s">
         <v>305</v>
       </c>
@@ -4743,7 +5626,7 @@
         <v>-114.187853</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="29.25">
+    <row r="181" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A181" s="25" t="s">
         <v>307</v>
       </c>
@@ -4760,7 +5643,7 @@
         <v>-114.16410500000001</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="29.25">
+    <row r="182" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A182" s="25" t="s">
         <v>309</v>
       </c>
@@ -4777,7 +5660,7 @@
         <v>-114.12326</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="43.5">
+    <row r="183" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A183" s="25" t="s">
         <v>310</v>
       </c>
@@ -4794,7 +5677,7 @@
         <v>-114.151832</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="29.25">
+    <row r="184" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A184" s="25" t="s">
         <v>297</v>
       </c>
@@ -4811,7 +5694,7 @@
         <v>-114.141312</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="15">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="25" t="s">
         <v>313</v>
       </c>
@@ -4828,7 +5711,7 @@
         <v>-114.141352</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="15">
+    <row r="186" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="25" t="s">
         <v>314</v>
       </c>
@@ -4845,7 +5728,7 @@
         <v>-114.141186</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="15">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="25" t="s">
         <v>315</v>
       </c>
@@ -4862,7 +5745,7 @@
         <v>-114.117896</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="15">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="25" t="s">
         <v>316</v>
       </c>
@@ -4879,7 +5762,7 @@
         <v>-114.105344</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="15">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="25" t="s">
         <v>271</v>
       </c>
@@ -4896,7 +5779,7 @@
         <v>-114.094448</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="29.25">
+    <row r="190" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A190" s="25" t="s">
         <v>317</v>
       </c>
@@ -4913,7 +5796,7 @@
         <v>-114.08001</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="25" t="s">
         <v>319</v>
       </c>
@@ -4930,7 +5813,7 @@
         <v>-114.069231</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="15">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="25" t="s">
         <v>320</v>
       </c>
@@ -4947,7 +5830,7 @@
         <v>-114.052649</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="15">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="25" t="s">
         <v>321</v>
       </c>
@@ -4964,7 +5847,7 @@
         <v>-114.047901</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="15">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="25" t="s">
         <v>322</v>
       </c>
@@ -4981,7 +5864,7 @@
         <v>-114.036345</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="15">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="25" t="s">
         <v>323</v>
       </c>
@@ -4996,7 +5879,7 @@
         <v>-114.015624</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="15">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="25" t="s">
         <v>324</v>
       </c>
@@ -5009,6 +5892,3095 @@
       </c>
       <c r="E196">
         <v>-113.99653600000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A64457-543D-5E4D-939D-9DB06646213E}">
+  <dimension ref="A1:D220"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="J102" sqref="J102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A25" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A26" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A27" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A28" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A31" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A36" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A37" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A39" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A41" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A42" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A49" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A51" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A55" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A56" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A57" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="D57" s="31" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="D59" s="31" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A60" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A61" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A62" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="D62" s="31" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A63" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="D63" s="31" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="D67" s="25" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A69" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="D69" s="31" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="D72" s="25" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="D74" s="25"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="B75" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="D75" s="25"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="B76" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="C76" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D76" s="33"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="B77" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="C77" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D77" s="33" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A78" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="B78" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="C78" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D78" s="34" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A79" s="33" t="s">
+        <v>406</v>
+      </c>
+      <c r="B79" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="C79" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D79" s="34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A80" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="B80" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="C80" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D80" s="34" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A81" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="B81" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="C81" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D81" s="34" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A82" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="B82" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="C82" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D82" s="34" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A83" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="B83" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="C83" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D83" s="34" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A84" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="B84" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="C84" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D84" s="34" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A85" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="B85" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="C85" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D85" s="34" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="B86" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="C86" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D86" s="33" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A87" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="B87" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="C87" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D87" s="34" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="B88" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="C88" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D88" s="33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="33" t="s">
+        <v>434</v>
+      </c>
+      <c r="B89" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="C89" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D89" s="33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A90" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="B90" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="C90" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D90" s="34" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A91" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="B91" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="C91" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D91" s="34" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="B92" s="33" t="s">
+        <v>442</v>
+      </c>
+      <c r="C92" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D92" s="33" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="B93" s="33" t="s">
+        <v>445</v>
+      </c>
+      <c r="C93" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D93" s="33" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="33" t="s">
+        <v>446</v>
+      </c>
+      <c r="B94" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="C94" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D94" s="34" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="33" t="s">
+        <v>448</v>
+      </c>
+      <c r="B95" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="C95" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D95" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="B96" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="C96" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D96" s="33" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A97" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B97" s="33" t="s">
+        <v>452</v>
+      </c>
+      <c r="C97" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D97" s="34" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="B98" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="C98" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D98" s="33" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A99" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="B99" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="C99" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D99" s="34" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A100" s="33" t="s">
+        <v>458</v>
+      </c>
+      <c r="B100" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="C100" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D100" s="34" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A101" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="B101" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="C101" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D101" s="34" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A102" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="B102" s="33" t="s">
+        <v>464</v>
+      </c>
+      <c r="C102" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D102" s="34" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="B103" s="33" t="s">
+        <v>466</v>
+      </c>
+      <c r="C103" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D103" s="33" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D104" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D105" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D106" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D107" s="26" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D108" s="26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D109" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D110" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D119" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D120" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D121" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D122" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D123" s="26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D124" s="40" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D129" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D130" s="35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131" s="35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D133" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134" s="35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D140" s="35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D141" s="35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D142" s="35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D143" s="35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D144" s="35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D145" s="35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D146" s="35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D147" s="35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A149" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="C149" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D149" s="36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A150" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B150" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D150" s="36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A151" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B151" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D151" s="36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B152" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="C152" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D152" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A153" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B153" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="C153" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D153" s="36" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A154" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B154" s="16" t="s">
+        <v>521</v>
+      </c>
+      <c r="C154" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D154" s="36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A155" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B155" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="C155" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D155" s="36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A156" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B156" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="C156" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D156" s="36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A157" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B157" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="C157" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D157" s="36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A158" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B158" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="C158" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D158" s="36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A159" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B159" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="C159" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D159" s="36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A160" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B160" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="C160" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D160" s="36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A161" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B161" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="C161" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D161" s="36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A162" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B162" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="C162" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D162" s="36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A163" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B163" s="16" t="s">
+        <v>530</v>
+      </c>
+      <c r="C163" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D163" s="36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A164" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B164" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="C164" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D164" s="36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A165" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B165" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="C165" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D165" s="36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A166" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B166" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="C166" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D166" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A167" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B167" s="17" t="s">
+        <v>534</v>
+      </c>
+      <c r="C167" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D167" s="37" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A168" s="17" t="s">
+        <v>535</v>
+      </c>
+      <c r="B168" s="17" t="s">
+        <v>536</v>
+      </c>
+      <c r="C168" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D168" s="37" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A169" s="17" t="s">
+        <v>537</v>
+      </c>
+      <c r="B169" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="C169" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D169" s="37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="17" t="s">
+        <v>539</v>
+      </c>
+      <c r="B170" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="C170" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D170" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B171" s="17" t="s">
+        <v>541</v>
+      </c>
+      <c r="C171" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D171" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A172" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B172" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="C172" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D172" s="37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A173" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B173" s="17" t="s">
+        <v>543</v>
+      </c>
+      <c r="C173" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D173" s="37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A174" s="17" t="s">
+        <v>544</v>
+      </c>
+      <c r="B174" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="C174" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D174" s="37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A175" s="17" t="s">
+        <v>546</v>
+      </c>
+      <c r="B175" s="17" t="s">
+        <v>547</v>
+      </c>
+      <c r="C175" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D175" s="37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A176" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B176" s="17" t="s">
+        <v>548</v>
+      </c>
+      <c r="C176" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D176" s="37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A177" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="B177" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="C177" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D177" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="B178" s="17" t="s">
+        <v>552</v>
+      </c>
+      <c r="C178" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D178" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="B179" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="C179" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D179" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A180" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="B180" s="17" t="s">
+        <v>556</v>
+      </c>
+      <c r="C180" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D180" s="37" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A181" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="B181" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="C181" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D181" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="17" t="s">
+        <v>559</v>
+      </c>
+      <c r="B182" s="17" t="s">
+        <v>560</v>
+      </c>
+      <c r="C182" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D182" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B183" s="18" t="s">
+        <v>561</v>
+      </c>
+      <c r="C183" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D183" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B184" s="18" t="s">
+        <v>562</v>
+      </c>
+      <c r="C184" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D184" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A185" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B185" s="18" t="s">
+        <v>563</v>
+      </c>
+      <c r="C185" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D185" s="38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A186" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B186" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="C186" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D186" s="38" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A187" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B187" s="18" t="s">
+        <v>565</v>
+      </c>
+      <c r="C187" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D187" s="38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A188" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B188" s="18" t="s">
+        <v>566</v>
+      </c>
+      <c r="C188" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D188" s="38" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A189" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B189" s="18" t="s">
+        <v>567</v>
+      </c>
+      <c r="C189" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D189" s="38" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A190" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B190" s="18" t="s">
+        <v>568</v>
+      </c>
+      <c r="C190" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D190" s="38" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B191" s="18" t="s">
+        <v>569</v>
+      </c>
+      <c r="C191" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D191" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A192" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B192" s="18" t="s">
+        <v>570</v>
+      </c>
+      <c r="C192" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D192" s="38" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B193" s="18" t="s">
+        <v>571</v>
+      </c>
+      <c r="C193" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D193" s="18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A194" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B194" s="18" t="s">
+        <v>572</v>
+      </c>
+      <c r="C194" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D194" s="38" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A195" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B195" s="18" t="s">
+        <v>573</v>
+      </c>
+      <c r="C195" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D195" s="38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A196" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B196" s="18" t="s">
+        <v>574</v>
+      </c>
+      <c r="C196" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D196" s="38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A197" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B197" s="18" t="s">
+        <v>575</v>
+      </c>
+      <c r="C197" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D197" s="38" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B198" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="C198" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D198" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B199" s="18" t="s">
+        <v>577</v>
+      </c>
+      <c r="C199" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D199" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B200" s="18" t="s">
+        <v>578</v>
+      </c>
+      <c r="C200" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D200" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A201" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B201" s="19" t="s">
+        <v>579</v>
+      </c>
+      <c r="C201" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D201" s="39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B202" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="C202" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D202" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="B203" s="19" t="s">
+        <v>581</v>
+      </c>
+      <c r="C203" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D203" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A204" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B204" s="19" t="s">
+        <v>582</v>
+      </c>
+      <c r="C204" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D204" s="39" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="B205" s="19" t="s">
+        <v>583</v>
+      </c>
+      <c r="C205" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D205" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="B206" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="C206" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D206" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A207" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B207" s="19" t="s">
+        <v>585</v>
+      </c>
+      <c r="C207" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D207" s="39" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A208" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B208" s="19" t="s">
+        <v>586</v>
+      </c>
+      <c r="C208" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D208" s="39" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B209" s="19" t="s">
+        <v>587</v>
+      </c>
+      <c r="C209" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D209" s="19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A210" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="B210" s="19" t="s">
+        <v>588</v>
+      </c>
+      <c r="C210" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D210" s="39" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B211" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="C211" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D211" s="19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A212" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B212" s="19" t="s">
+        <v>542</v>
+      </c>
+      <c r="C212" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D212" s="39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A213" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B213" s="19" t="s">
+        <v>543</v>
+      </c>
+      <c r="C213" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D213" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A214" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="B214" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="C214" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D214" s="39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A215" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B215" s="19" t="s">
+        <v>589</v>
+      </c>
+      <c r="C215" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D215" s="39" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A216" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B216" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="C216" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D216" s="39" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A217" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B217" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="C217" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D217" s="39" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A218" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B218" s="19" t="s">
+        <v>592</v>
+      </c>
+      <c r="C218" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D218" s="39" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A219" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B219" s="19" t="s">
+        <v>593</v>
+      </c>
+      <c r="C219" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D219" s="39" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A220" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B220" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="C220" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D220" s="39" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/Data Sets/Analysis Data/Stops Sorted Future Network.xlsx
+++ b/Data Sets/Analysis Data/Stops Sorted Future Network.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sulemanbasit/PycharmProjects/Calgary-Transit-Economic-Gap-Analysis/Data Sets/Analysis Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B22059-BA37-EE4E-BBB6-5B98A6284C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D147368-74D5-4948-BE00-33F0FAD6959A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21800" windowHeight="12980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16700" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="608">
   <si>
     <t>Location</t>
   </si>
@@ -1860,9 +1860,6 @@
     <t>50.963583,-114.012232</t>
   </si>
   <si>
-    <t>douglas glen blvd</t>
-  </si>
-  <si>
     <t>50.957148,-114.007522</t>
   </si>
   <si>
@@ -1972,11 +1969,6 @@
   </si>
   <si>
     <t>50.936424,-114.117873</t>
-  </si>
-  <si>
-    <t>Shaganappi
-Rosscarrock
-Killarney</t>
   </si>
   <si>
     <t>Hounsfield Heights/Briar Hill</t>
@@ -1996,6 +1988,51 @@
 Glamorgan
 Glenbrook
 Killarney/Glengarry</t>
+  </si>
+  <si>
+    <t>Winston Heights/Mountview
+Renfrew</t>
+  </si>
+  <si>
+    <t>Downtown Commercial Core
+Downtown East Village</t>
+  </si>
+  <si>
+    <t>Downtown Commercial Core
+Beltline
+Downtown East Village</t>
+  </si>
+  <si>
+    <t>Downtown East Village
+Beltline</t>
+  </si>
+  <si>
+    <t>Downtown East Village
+Beltline
+Ramsay
+Inglewood</t>
+  </si>
+  <si>
+    <t>Douglasdale/Glen blvd</t>
+  </si>
+  <si>
+    <t>Crescent Heights
+Winston Heights/Mountview
+Tuxedo Park
+Renfrew</t>
+  </si>
+  <si>
+    <t>Shaganappi
+Rosscarrock
+Killarney/Glengarry</t>
+  </si>
+  <si>
+    <t>Ogden
+Riverbend</t>
+  </si>
+  <si>
+    <t>Ogden
+Douglasdale/Glen</t>
   </si>
 </sst>
 </file>
@@ -5903,11 +5940,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A64457-543D-5E4D-939D-9DB06646213E}">
   <dimension ref="A1:D220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="J102" sqref="J102"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -5923,7 +5965,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>211</v>
       </c>
@@ -5951,7 +5993,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>215</v>
       </c>
@@ -5965,7 +6007,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>217</v>
       </c>
@@ -6105,7 +6147,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>237</v>
       </c>
@@ -6119,7 +6161,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
         <v>239</v>
       </c>
@@ -6245,7 +6287,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
         <v>248</v>
       </c>
@@ -6259,7 +6301,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
         <v>250</v>
       </c>
@@ -6273,7 +6315,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
         <v>251</v>
       </c>
@@ -6287,7 +6329,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
         <v>252</v>
       </c>
@@ -6413,7 +6455,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="23" t="s">
         <v>268</v>
       </c>
@@ -6441,7 +6483,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="23" t="s">
         <v>272</v>
       </c>
@@ -6469,7 +6511,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="23" t="s">
         <v>276</v>
       </c>
@@ -6581,7 +6623,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="23" t="s">
         <v>288</v>
       </c>
@@ -6665,7 +6707,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="24" t="s">
         <v>297</v>
       </c>
@@ -6735,7 +6777,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="25" t="s">
         <v>307</v>
       </c>
@@ -6749,7 +6791,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="25" t="s">
         <v>309</v>
       </c>
@@ -6763,7 +6805,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A62" s="25" t="s">
         <v>310</v>
       </c>
@@ -6777,7 +6819,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="25" t="s">
         <v>297</v>
       </c>
@@ -6981,7 +7023,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A78" s="33" t="s">
         <v>403</v>
       </c>
@@ -7009,7 +7051,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="33" t="s">
         <v>408</v>
       </c>
@@ -7023,7 +7065,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="33" t="s">
         <v>411</v>
       </c>
@@ -7037,7 +7079,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="33" t="s">
         <v>414</v>
       </c>
@@ -7051,7 +7093,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A83" s="33" t="s">
         <v>417</v>
       </c>
@@ -7065,7 +7107,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" s="33" t="s">
         <v>420</v>
       </c>
@@ -7079,7 +7121,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" s="33" t="s">
         <v>423</v>
       </c>
@@ -7244,12 +7286,12 @@
         <v>473</v>
       </c>
       <c r="D96" s="33" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="33" t="s">
-        <v>145</v>
+        <v>453</v>
       </c>
       <c r="B97" s="33" t="s">
         <v>452</v>
@@ -7275,7 +7317,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" s="33" t="s">
         <v>239</v>
       </c>
@@ -7289,7 +7331,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A100" s="33" t="s">
         <v>458</v>
       </c>
@@ -7345,7 +7387,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>51</v>
       </c>
@@ -7398,7 +7440,7 @@
         <v>52</v>
       </c>
       <c r="D107" s="26" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -7429,7 +7471,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>63</v>
       </c>
@@ -7454,7 +7496,7 @@
         <v>52</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -7468,7 +7510,7 @@
         <v>52</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -7482,7 +7524,7 @@
         <v>52</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -7496,7 +7538,7 @@
         <v>52</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -7555,7 +7597,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>72</v>
       </c>
@@ -7650,7 +7692,7 @@
         <v>7</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -7664,7 +7706,7 @@
         <v>7</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -7678,7 +7720,7 @@
         <v>7</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -7692,7 +7734,7 @@
         <v>7</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -7751,7 +7793,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>15</v>
       </c>
@@ -7790,7 +7832,7 @@
         <v>7</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -7863,7 +7905,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>30</v>
       </c>
@@ -7919,7 +7961,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>38</v>
       </c>
@@ -7933,7 +7975,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>40</v>
       </c>
@@ -8003,7 +8045,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A151" s="16" t="s">
         <v>87</v>
       </c>
@@ -8031,7 +8073,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A153" s="16" t="s">
         <v>91</v>
       </c>
@@ -8042,7 +8084,7 @@
         <v>83</v>
       </c>
       <c r="D153" s="36" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -8059,7 +8101,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A155" s="16" t="s">
         <v>95</v>
       </c>
@@ -8073,7 +8115,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A156" s="16" t="s">
         <v>97</v>
       </c>
@@ -8084,10 +8126,10 @@
         <v>83</v>
       </c>
       <c r="D156" s="36" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A157" s="16" t="s">
         <v>99</v>
       </c>
@@ -8098,10 +8140,10 @@
         <v>83</v>
       </c>
       <c r="D157" s="36" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="16" t="s">
         <v>100</v>
       </c>
@@ -8227,7 +8269,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A167" s="17" t="s">
         <v>115</v>
       </c>
@@ -8238,10 +8280,10 @@
         <v>117</v>
       </c>
       <c r="D167" s="37" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A168" s="17" t="s">
         <v>535</v>
       </c>
@@ -8252,7 +8294,7 @@
         <v>117</v>
       </c>
       <c r="D168" s="37" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -8297,7 +8339,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A172" s="17" t="s">
         <v>125</v>
       </c>
@@ -8311,7 +8353,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A173" s="17" t="s">
         <v>127</v>
       </c>
@@ -8325,7 +8367,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A174" s="17" t="s">
         <v>544</v>
       </c>
@@ -8339,7 +8381,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A175" s="17" t="s">
         <v>546</v>
       </c>
@@ -8420,35 +8462,35 @@
         <v>117</v>
       </c>
       <c r="D180" s="37" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A181" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="B181" s="17" t="s">
         <v>557</v>
-      </c>
-      <c r="B181" s="17" t="s">
-        <v>558</v>
       </c>
       <c r="C181" s="17" t="s">
         <v>117</v>
       </c>
       <c r="D181" s="37" t="s">
-        <v>143</v>
+        <v>607</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="B182" s="17" t="s">
         <v>559</v>
-      </c>
-      <c r="B182" s="17" t="s">
-        <v>560</v>
       </c>
       <c r="C182" s="17" t="s">
         <v>117</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>145</v>
+        <v>453</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -8456,7 +8498,7 @@
         <v>146</v>
       </c>
       <c r="B183" s="18" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C183" s="18" t="s">
         <v>148</v>
@@ -8470,7 +8512,7 @@
         <v>149</v>
       </c>
       <c r="B184" s="18" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C184" s="18" t="s">
         <v>148</v>
@@ -8479,26 +8521,26 @@
         <v>147</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A185" s="18" t="s">
         <v>150</v>
       </c>
       <c r="B185" s="18" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C185" s="18" t="s">
         <v>148</v>
       </c>
       <c r="D185" s="38" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A186" s="18" t="s">
         <v>152</v>
       </c>
       <c r="B186" s="18" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C186" s="18" t="s">
         <v>148</v>
@@ -8507,18 +8549,18 @@
         <v>153</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A187" s="18" t="s">
         <v>154</v>
       </c>
       <c r="B187" s="18" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C187" s="18" t="s">
         <v>148</v>
       </c>
       <c r="D187" s="38" t="s">
-        <v>155</v>
+        <v>600</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -8526,13 +8568,13 @@
         <v>156</v>
       </c>
       <c r="B188" s="18" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C188" s="18" t="s">
         <v>148</v>
       </c>
       <c r="D188" s="38" t="s">
-        <v>157</v>
+        <v>601</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -8540,13 +8582,13 @@
         <v>158</v>
       </c>
       <c r="B189" s="18" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C189" s="18" t="s">
         <v>148</v>
       </c>
       <c r="D189" s="38" t="s">
-        <v>159</v>
+        <v>602</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -8554,7 +8596,7 @@
         <v>160</v>
       </c>
       <c r="B190" s="18" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C190" s="18" t="s">
         <v>148</v>
@@ -8568,7 +8610,7 @@
         <v>162</v>
       </c>
       <c r="B191" s="18" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C191" s="18" t="s">
         <v>148</v>
@@ -8582,7 +8624,7 @@
         <v>164</v>
       </c>
       <c r="B192" s="18" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C192" s="18" t="s">
         <v>148</v>
@@ -8596,7 +8638,7 @@
         <v>166</v>
       </c>
       <c r="B193" s="18" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C193" s="18" t="s">
         <v>148</v>
@@ -8605,12 +8647,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A194" s="18" t="s">
         <v>167</v>
       </c>
       <c r="B194" s="18" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C194" s="18" t="s">
         <v>148</v>
@@ -8619,12 +8661,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A195" s="18" t="s">
         <v>169</v>
       </c>
       <c r="B195" s="18" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C195" s="18" t="s">
         <v>148</v>
@@ -8633,12 +8675,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A196" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B196" s="18" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C196" s="18" t="s">
         <v>148</v>
@@ -8647,12 +8689,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="18" t="s">
         <v>173</v>
       </c>
       <c r="B197" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C197" s="18" t="s">
         <v>148</v>
@@ -8666,7 +8708,7 @@
         <v>175</v>
       </c>
       <c r="B198" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C198" s="18" t="s">
         <v>148</v>
@@ -8680,7 +8722,7 @@
         <v>177</v>
       </c>
       <c r="B199" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C199" s="18" t="s">
         <v>148</v>
@@ -8694,7 +8736,7 @@
         <v>178</v>
       </c>
       <c r="B200" s="18" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C200" s="18" t="s">
         <v>148</v>
@@ -8703,12 +8745,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A201" s="19" t="s">
         <v>179</v>
       </c>
       <c r="B201" s="19" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C201" s="19" t="s">
         <v>181</v>
@@ -8722,7 +8764,7 @@
         <v>182</v>
       </c>
       <c r="B202" s="19" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C202" s="19" t="s">
         <v>181</v>
@@ -8736,7 +8778,7 @@
         <v>183</v>
       </c>
       <c r="B203" s="19" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C203" s="19" t="s">
         <v>181</v>
@@ -8745,12 +8787,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A204" s="19" t="s">
         <v>184</v>
       </c>
       <c r="B204" s="19" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C204" s="19" t="s">
         <v>181</v>
@@ -8764,7 +8806,7 @@
         <v>186</v>
       </c>
       <c r="B205" s="19" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C205" s="19" t="s">
         <v>181</v>
@@ -8778,7 +8820,7 @@
         <v>187</v>
       </c>
       <c r="B206" s="19" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C206" s="19" t="s">
         <v>181</v>
@@ -8787,12 +8829,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A207" s="19" t="s">
         <v>188</v>
       </c>
       <c r="B207" s="19" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C207" s="19" t="s">
         <v>181</v>
@@ -8801,12 +8843,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A208" s="19" t="s">
         <v>190</v>
       </c>
       <c r="B208" s="19" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C208" s="19" t="s">
         <v>181</v>
@@ -8820,7 +8862,7 @@
         <v>192</v>
       </c>
       <c r="B209" s="19" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C209" s="19" t="s">
         <v>181</v>
@@ -8829,12 +8871,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A210" s="19" t="s">
         <v>194</v>
       </c>
       <c r="B210" s="19" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C210" s="19" t="s">
         <v>181</v>
@@ -8857,7 +8899,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A212" s="19" t="s">
         <v>197</v>
       </c>
@@ -8871,7 +8913,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A213" s="19" t="s">
         <v>198</v>
       </c>
@@ -8885,7 +8927,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A214" s="19" t="s">
         <v>199</v>
       </c>
@@ -8904,7 +8946,7 @@
         <v>200</v>
       </c>
       <c r="B215" s="19" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C215" s="19" t="s">
         <v>181</v>
@@ -8918,7 +8960,7 @@
         <v>202</v>
       </c>
       <c r="B216" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C216" s="19" t="s">
         <v>181</v>
@@ -8932,7 +8974,7 @@
         <v>204</v>
       </c>
       <c r="B217" s="19" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C217" s="19" t="s">
         <v>181</v>
@@ -8946,7 +8988,7 @@
         <v>206</v>
       </c>
       <c r="B218" s="19" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C218" s="19" t="s">
         <v>181</v>
@@ -8960,7 +9002,7 @@
         <v>208</v>
       </c>
       <c r="B219" s="19" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C219" s="19" t="s">
         <v>181</v>
@@ -8974,7 +9016,7 @@
         <v>210</v>
       </c>
       <c r="B220" s="19" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C220" s="19" t="s">
         <v>181</v>
